--- a/12-jitterplot/12-jitterplot-solution.xlsx
+++ b/12-jitterplot/12-jitterplot-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\12-jitterplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1097B06-19BD-43C6-A1C2-56CAEF35E0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DB49B-9860-448E-AEC0-B76064673B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F58" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>

--- a/12-jitterplot/12-jitterplot-solution.xlsx
+++ b/12-jitterplot/12-jitterplot-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\12-jitterplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661DB49B-9860-448E-AEC0-B76064673B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBF817-DFED-45FD-97C7-1F2DD9696E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="5">
+  <futureMetadata name="XLRICHVALUE" count="6">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -83,13 +83,20 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="5">
+  <valueMetadata count="6">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -104,6 +111,9 @@
     </bk>
     <bk>
       <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -134,6 +144,9 @@
       <code>sns.stripplot(x='origin', y='mpg', data=mpg_df)</code>
     </pythonScript>
     <pythonScript>
+      <code>sns.stripplot(x='origin', y='mpg', data=mpg_df, palette='coolwarm')</code>
+    </pythonScript>
+    <pythonScript>
       <code>sns.stripplot(x='origin', y='mpg', hue='cylinders', data=mpg_df, jitter=.2)</code>
     </pythonScript>
     <pythonScript>
@@ -149,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -182,9 +195,6 @@
   </si>
   <si>
     <t>europe</t>
-  </si>
-  <si>
-    <t>https://x.com/i/grok/share/s85SFNYrwD4smYtaH7onq5cVR</t>
   </si>
 </sst>
 </file>
@@ -937,6 +947,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>558764</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>192170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93A17C-1C7B-C64F-777C-B8BDC55A8232}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!R5"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16937182" y="1073727"/>
+          <a:ext cx="5148082" cy="3950216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1096,7 +1155,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1132,6 +1191,11 @@
   </rv>
   <rv s="3">
     <v>3</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="3">
+    <v>4</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1211,6 +1275,7 @@
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
   <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
 </richValueRels>
 </file>
 
@@ -1548,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
@@ -1563,7 +1628,7 @@
     <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,11 +1653,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1618,7 +1681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1648,7 +1711,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1674,7 +1737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1703,8 +1766,12 @@
         <f t="array" ref="J5">_xlfn._xlws.PY(1,0)</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="R5" t="e" cm="1" vm="3">
+        <f t="array" ref="R5">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1730,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1756,7 +1823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1782,7 +1849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1808,7 +1875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1834,7 +1901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1860,7 +1927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1886,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1912,7 +1979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1938,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1964,7 +2031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.65">
       <c r="A16">
         <v>24</v>
       </c>
@@ -2145,8 +2212,8 @@
       <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" t="e" cm="1" vm="3">
-        <f t="array" ref="J22">_xlfn._xlws.PY(2,0)</f>
+      <c r="J22" t="e" cm="1" vm="4">
+        <f t="array" ref="J22">_xlfn._xlws.PY(3,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -2588,8 +2655,8 @@
       <c r="H39" t="s">
         <v>8</v>
       </c>
-      <c r="J39" t="e" cm="1" vm="4">
-        <f t="array" ref="J39">_xlfn._xlws.PY(3,0)</f>
+      <c r="J39" t="e" cm="1" vm="5">
+        <f t="array" ref="J39">_xlfn._xlws.PY(4,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3086,8 +3153,8 @@
       <c r="H58" t="s">
         <v>8</v>
       </c>
-      <c r="K58" t="e" cm="1" vm="5">
-        <f t="array" ref="K58">_xlfn._xlws.PY(4,0)</f>
+      <c r="K58" t="e" cm="1" vm="6">
+        <f t="array" ref="K58">_xlfn._xlws.PY(5,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -11943,13 +12010,10 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{53B384FB-6C08-41E5-ACA0-E3CF2E37E313}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/12-jitterplot/12-jitterplot-solution.xlsx
+++ b/12-jitterplot/12-jitterplot-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\12-jitterplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CBF817-DFED-45FD-97C7-1F2DD9696E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C14A22D1-F9C3-4DAE-8A6F-43F383064577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="6">
+  <futureMetadata name="XLRICHVALUE" count="4">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -76,27 +76,13 @@
         </ext>
       </extLst>
     </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="6"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="7"/>
-        </ext>
-      </extLst>
-    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="6">
+  <valueMetadata count="4">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -108,12 +94,6 @@
     </bk>
     <bk>
       <rc t="2" v="3"/>
-    </bk>
-    <bk>
-      <rc t="2" v="4"/>
-    </bk>
-    <bk>
-      <rc t="2" v="5"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -141,21 +121,14 @@
       <code>mpg_df = xl(%P2%, headers=True)</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.stripplot(x='origin', y='mpg', data=mpg_df)</code>
-    </pythonScript>
-    <pythonScript>
       <code>sns.stripplot(x='origin', y='mpg', data=mpg_df, palette='coolwarm')</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.stripplot(x='origin', y='mpg', hue='cylinders', data=mpg_df, jitter=.2)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>sns.stripplot(x='origin', y='mpg', hue='cylinders', data=mpg_df, jitter=.2)
-plt.title('MPG by Origin and Number of Cylinders')
+      <code>sns.stripplot(x='origin', y='mpg', data=mpg_df, hue='cylinders', jitter=.2)
 plt.legend(title='Cylinders', bbox_to_anchor=(1.05, 1), loc='upper left')</code>
     </pythonScript>
     <pythonScript>
-      <code>sns.scatterplot(x='cylinders', y='mpg', hue='origin', data=mpg_df)</code>
+      <code>sns.scatterplot(data=mpg_df, x='weight', y='mpg', hue='origin', size='acceleration')</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -201,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -332,14 +305,6 @@
     <font>
       <sz val="16"/>
       <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -642,7 +607,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -685,13 +650,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -725,7 +688,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -754,22 +716,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>735330</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>528457</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>230703</xdr:rowOff>
+      <xdr:colOff>579892</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>105926</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02224EBC-1790-B05E-ED42-02734ED16E6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C8328E9-CACA-9FA9-8C3F-125758BA2747}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +739,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J5"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -790,7 +752,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10448925" y="1081087"/>
+          <a:off x="10088880" y="483870"/>
           <a:ext cx="5148082" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -803,22 +765,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>776107</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25916</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30492</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>212606</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757269DA-AA31-8AA2-E21B-3605F48A42FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E9649C-8D5A-61DD-892C-21A8E8454BE6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -826,7 +788,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J22"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J19"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -839,155 +801,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10696575" y="5676900"/>
-          <a:ext cx="5148082" cy="3950216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>825829</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>198890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC5954F-1155-0627-AAD2-931A36FD794C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J39"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10682287" y="10191750"/>
-          <a:ext cx="6126492" cy="4142240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>576082</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>216416</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCAB96D-A771-AA6E-D8AB-1CF45ABDAC8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!K58"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10496550" y="15201900"/>
-          <a:ext cx="5148082" cy="3950216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>558764</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>192170</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93A17C-1C7B-C64F-777C-B8BDC55A8232}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!R5"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16937182" y="1073727"/>
-          <a:ext cx="5148082" cy="3950216"/>
+          <a:off x="10328910" y="4918710"/>
+          <a:ext cx="6126492" cy="3950216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,7 +970,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <rv s="0">
     <v>0</v>
   </rv>
@@ -1186,16 +1001,6 @@
   </rv>
   <rv s="3">
     <v>2</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="3">
-    <v>3</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-  <rv s="3">
-    <v>4</v>
     <v>9</v>
     <v>Image generated by Python</v>
   </rv>
@@ -1274,8 +1079,6 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
-  <rel r:id="rId4"/>
-  <rel r:id="rId5"/>
 </richValueRels>
 </file>
 
@@ -1613,22 +1416,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R399"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="2" max="2" width="9.04296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.76953125" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.03515625" customWidth="1"/>
+    <col min="3" max="3" width="12.73828125" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1653,9 +1456,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.65">
+      <c r="J1" t="e" cm="1" vm="1">
+        <f t="array" ref="J1">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1681,7 +1487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1706,12 +1512,12 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="e" cm="1" vm="1">
-        <f t="array" ref="J3">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+      <c r="J3" t="e" cm="1" vm="2">
+        <f t="array" ref="J3">_xlfn._xlws.PY(1,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1737,7 +1543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1762,16 +1568,8 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" t="e" cm="1" vm="2">
-        <f t="array" ref="J5">_xlfn._xlws.PY(1,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R5" t="e" cm="1" vm="3">
-        <f t="array" ref="R5">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.65">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1797,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1823,7 +1621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1849,7 +1647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1875,7 +1673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1901,7 +1699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1927,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1953,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1979,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2005,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2031,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -2057,7 +1855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -2083,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -2109,7 +1907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -2134,8 +1932,12 @@
       <c r="H19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J19" t="e" cm="1" vm="3">
+        <f t="array" ref="J19">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -2161,7 +1963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -2187,7 +1989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2212,12 +2014,8 @@
       <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" t="e" cm="1" vm="4">
-        <f t="array" ref="J22">_xlfn._xlws.PY(3,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2243,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2269,7 +2067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2295,7 +2093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2321,7 +2119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2347,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2373,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2399,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2425,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2451,7 +2249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2477,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2503,7 +2301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2526,7 +2324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2552,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2578,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2604,7 +2402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2630,7 +2428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2655,12 +2453,8 @@
       <c r="H39" t="s">
         <v>8</v>
       </c>
-      <c r="J39" t="e" cm="1" vm="5">
-        <f t="array" ref="J39">_xlfn._xlws.PY(4,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.65">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2686,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2712,7 +2506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2738,7 +2532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2764,7 +2558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2789,8 +2583,12 @@
       <c r="H44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.65">
+      <c r="J44" t="e" cm="1" vm="4">
+        <f t="array" ref="J44">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2816,7 +2614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2842,7 +2640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2868,7 +2666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2894,7 +2692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2920,7 +2718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2946,7 +2744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2972,7 +2770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2998,7 +2796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -3024,7 +2822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -3050,7 +2848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -3076,7 +2874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -3102,7 +2900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -3128,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3153,12 +2951,8 @@
       <c r="H58" t="s">
         <v>8</v>
       </c>
-      <c r="K58" t="e" cm="1" vm="6">
-        <f t="array" ref="K58">_xlfn._xlws.PY(5,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.65">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3184,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3210,7 +3004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3236,7 +3030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3262,7 +3056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3288,7 +3082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3314,7 +3108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3340,7 +3134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3366,7 +3160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3392,7 +3186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3418,7 +3212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3444,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3470,7 +3264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3496,7 +3290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3522,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3548,7 +3342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3574,7 +3368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3600,7 +3394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3626,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3652,7 +3446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3678,7 +3472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3704,7 +3498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3730,7 +3524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3756,7 +3550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3782,7 +3576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3808,7 +3602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3834,7 +3628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3860,7 +3654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3886,7 +3680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3912,7 +3706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3938,7 +3732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3964,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3990,7 +3784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -4016,7 +3810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -4042,7 +3836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -4068,7 +3862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4094,7 +3888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4120,7 +3914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4146,7 +3940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4172,7 +3966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4198,7 +3992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4224,7 +4018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4250,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4276,7 +4070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4302,7 +4096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4328,7 +4122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4354,7 +4148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4380,7 +4174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4406,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4432,7 +4226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4458,7 +4252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4484,7 +4278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4510,7 +4304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4536,7 +4330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4562,7 +4356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4588,7 +4382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4614,7 +4408,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4640,7 +4434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4666,7 +4460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4692,7 +4486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4718,7 +4512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4744,7 +4538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4770,7 +4564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4796,7 +4590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4822,7 +4616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4848,7 +4642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4874,7 +4668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4900,7 +4694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4926,7 +4720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4952,7 +4746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4975,7 +4769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -5001,7 +4795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -5027,7 +4821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -5053,7 +4847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -5079,7 +4873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -5105,7 +4899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -5131,7 +4925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -5157,7 +4951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5183,7 +4977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5209,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5235,7 +5029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5261,7 +5055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5287,7 +5081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5313,7 +5107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5339,7 +5133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5365,7 +5159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5391,7 +5185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5417,7 +5211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5443,7 +5237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5469,7 +5263,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5495,7 +5289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5521,7 +5315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5547,7 +5341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5573,7 +5367,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5599,7 +5393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5625,7 +5419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5651,7 +5445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5677,7 +5471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5703,7 +5497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5729,7 +5523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5755,7 +5549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5781,7 +5575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5807,7 +5601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5833,7 +5627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5859,7 +5653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5885,7 +5679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5911,7 +5705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5937,7 +5731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5963,7 +5757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5989,7 +5783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6015,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -6041,7 +5835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -6067,7 +5861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -6093,7 +5887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -6119,7 +5913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -6145,7 +5939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -6171,7 +5965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6197,7 +5991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6223,7 +6017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6249,7 +6043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6275,7 +6069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6301,7 +6095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6327,7 +6121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6353,7 +6147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6379,7 +6173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6405,7 +6199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6431,7 +6225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6457,7 +6251,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6483,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6509,7 +6303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6535,7 +6329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6561,7 +6355,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6587,7 +6381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6613,7 +6407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6639,7 +6433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6665,7 +6459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -6691,7 +6485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6717,7 +6511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6743,7 +6537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6769,7 +6563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6795,7 +6589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6821,7 +6615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6847,7 +6641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6873,7 +6667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6899,7 +6693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6925,7 +6719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6951,7 +6745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6977,7 +6771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -7003,7 +6797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -7029,7 +6823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -7055,7 +6849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -7081,7 +6875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -7107,7 +6901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -7133,7 +6927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -7159,7 +6953,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -7185,7 +6979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -7211,7 +7005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7237,7 +7031,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7263,7 +7057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7289,7 +7083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7315,7 +7109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7341,7 +7135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7367,7 +7161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7393,7 +7187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7419,7 +7213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7445,7 +7239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7471,7 +7265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7497,7 +7291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7523,7 +7317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7549,7 +7343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7575,7 +7369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -7601,7 +7395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -7627,7 +7421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -7653,7 +7447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -7679,7 +7473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -7705,7 +7499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7731,7 +7525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7757,7 +7551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7783,7 +7577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7809,7 +7603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7835,7 +7629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7861,7 +7655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7887,7 +7681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7913,7 +7707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7939,7 +7733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7965,7 +7759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7991,7 +7785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -8017,7 +7811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -8043,7 +7837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -8069,7 +7863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -8095,7 +7889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -8121,7 +7915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -8147,7 +7941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -8173,7 +7967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -8199,7 +7993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -8225,7 +8019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -8251,7 +8045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8277,7 +8071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8303,7 +8097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8329,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8355,7 +8149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8381,7 +8175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8407,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8433,7 +8227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8459,7 +8253,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -8485,7 +8279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -8511,7 +8305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -8537,7 +8331,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -8563,7 +8357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -8589,7 +8383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -8615,7 +8409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -8641,7 +8435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -8667,7 +8461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -8693,7 +8487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8719,7 +8513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8745,7 +8539,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8771,7 +8565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8797,7 +8591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8823,7 +8617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8849,7 +8643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8875,7 +8669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8901,7 +8695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8927,7 +8721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8953,7 +8747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8979,7 +8773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -9005,7 +8799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -9031,7 +8825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -9057,7 +8851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -9083,7 +8877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -9109,7 +8903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -9135,7 +8929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -9161,7 +8955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -9187,7 +8981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -9213,7 +9007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -9239,7 +9033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9265,7 +9059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9291,7 +9085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9317,7 +9111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9343,7 +9137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9369,7 +9163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -9395,7 +9189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -9421,7 +9215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -9447,7 +9241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -9473,7 +9267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -9499,7 +9293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -9525,7 +9319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -9551,7 +9345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -9577,7 +9371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -9603,7 +9397,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -9629,7 +9423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -9655,7 +9449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -9681,7 +9475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -9707,7 +9501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9733,7 +9527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9759,7 +9553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9785,7 +9579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9811,7 +9605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9837,7 +9631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9863,7 +9657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9889,7 +9683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9915,7 +9709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9941,7 +9735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9967,7 +9761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9993,7 +9787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -10019,7 +9813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -10045,7 +9839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -10071,7 +9865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -10097,7 +9891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -10123,7 +9917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -10149,7 +9943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -10175,7 +9969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -10201,7 +9995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -10227,7 +10021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -10253,7 +10047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -10276,7 +10070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -10302,7 +10096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -10328,7 +10122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -10354,7 +10148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -10380,7 +10174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -10406,7 +10200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -10429,7 +10223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -10455,7 +10249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -10481,7 +10275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -10507,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -10533,7 +10327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -10559,7 +10353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -10585,7 +10379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -10611,7 +10405,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -10637,7 +10431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -10663,7 +10457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -10689,7 +10483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10715,7 +10509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10741,7 +10535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10767,7 +10561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10793,7 +10587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10819,7 +10613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10845,7 +10639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10871,7 +10665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10894,7 +10688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10920,7 +10714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10946,7 +10740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10972,7 +10766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10998,7 +10792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -11024,7 +10818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -11050,7 +10844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -11076,7 +10870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -11102,7 +10896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -11128,7 +10922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -11154,7 +10948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -11180,7 +10974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -11206,7 +11000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -11232,7 +11026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -11258,7 +11052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -11284,7 +11078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -11310,7 +11104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -11336,7 +11130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -11362,7 +11156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -11388,7 +11182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -11411,7 +11205,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -11437,7 +11231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -11463,7 +11257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -11489,7 +11283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -11515,7 +11309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -11541,7 +11335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -11567,7 +11361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -11593,7 +11387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -11619,7 +11413,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -11645,7 +11439,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -11671,7 +11465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -11697,7 +11491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11723,7 +11517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11749,7 +11543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11775,7 +11569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11801,7 +11595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11827,7 +11621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11853,7 +11647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11879,7 +11673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11905,7 +11699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11931,7 +11725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11957,7 +11751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11983,7 +11777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>

--- a/12-jitterplot/12-jitterplot-solution.xlsx
+++ b/12-jitterplot/12-jitterplot-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\12-jitterplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C14A22D1-F9C3-4DAE-8A6F-43F383064577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7DFA8-1894-4A4B-86EC-EA7FF813BBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="12-jitterplot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -739,7 +739,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'12-jitterplot'!J3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -788,7 +788,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!J19"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'12-jitterplot'!J19"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
